--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F2428-A9F3-4864-9954-3B7E680CB867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361A3B5-433F-4654-99C9-5376A96DFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Löschen Sie diese Zeile nicht. Diese Zeile ist ausgeblendet, um eine Formel zu schützen, die zum Hervorheben des aktuellen Tags im Projektzeitplan verwendet wird. </t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>IS</t>
   </si>
   <si>
     <t>Zelle B8 enthält den Beispieltitel „Phase 1“. 
@@ -157,25 +151,13 @@
     <t xml:space="preserve">Abgabe </t>
   </si>
   <si>
-    <t>Definiton zu untersuchender Regelstrecken</t>
-  </si>
-  <si>
     <t>Einarbeitung bestehender Code</t>
-  </si>
-  <si>
-    <t>Erstellung Konzept für Handling Regelstrecken / Closed-Loop</t>
-  </si>
-  <si>
-    <t>Umsetzung und Testen Funktionalität</t>
   </si>
   <si>
     <t>Für definierte Systeme PSO testen</t>
   </si>
   <si>
     <t>Verifikation in Simulink</t>
-  </si>
-  <si>
-    <t>Dokumentation Verifikation</t>
   </si>
   <si>
     <t>Integration gewünschter Funktionalitäten</t>
@@ -192,12 +174,33 @@
   <si>
     <t>Dokumentation Umfang Funktionalität Software</t>
   </si>
+  <si>
+    <t>SOLL</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>Definition zu untersuchender Regelstrecken</t>
+  </si>
+  <si>
+    <t>Verifikation Schrittantwort  in Simulink</t>
+  </si>
+  <si>
+    <t>Umsetzung und Testen</t>
+  </si>
+  <si>
+    <t>Erstellung Konzept für Erzeugung allgemeiner Regelstrecken / Closed-Loop</t>
+  </si>
+  <si>
+    <t>Erweiterung System für Nutzung in PSO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -207,7 +210,8 @@
     <numFmt numFmtId="170" formatCode="d"/>
     <numFmt numFmtId="171" formatCode="[$-809]d/\ mmm\ yyyy;@"/>
     <numFmt numFmtId="172" formatCode="[$-809]d;@"/>
-    <numFmt numFmtId="173" formatCode="[$-809]ddd\,\ d/m/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-807]d/\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="[$-807]ddd\,\ d/m/yyyy;@"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1195,17 +1199,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1213,32 +1232,17 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1807,11 +1811,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DA39"/>
+  <dimension ref="A1:DA41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI23" sqref="AI23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1826,7 @@
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="105" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1831,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -1845,166 +1849,166 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="65">
+        <v>32</v>
+      </c>
+      <c r="D2" s="76">
         <v>45922</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="73">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="62">
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="73">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62">
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="73">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="62">
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="73">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="62">
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="73">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="62">
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="73">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="62">
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="73">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="62">
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="73">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="62">
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="73">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="62">
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="73">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="62">
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="75"/>
+      <c r="BZ3" s="73">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="63"/>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="62">
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="74"/>
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="75"/>
+      <c r="CG3" s="73">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="63"/>
-      <c r="CI3" s="63"/>
-      <c r="CJ3" s="63"/>
-      <c r="CK3" s="63"/>
-      <c r="CL3" s="63"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="62">
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="74"/>
+      <c r="CJ3" s="74"/>
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="74"/>
+      <c r="CM3" s="75"/>
+      <c r="CN3" s="73">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="63"/>
-      <c r="CP3" s="63"/>
-      <c r="CQ3" s="63"/>
-      <c r="CR3" s="63"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="62">
+      <c r="CO3" s="74"/>
+      <c r="CP3" s="74"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="74"/>
+      <c r="CS3" s="74"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="73">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="63"/>
-      <c r="CW3" s="63"/>
-      <c r="CX3" s="63"/>
-      <c r="CY3" s="63"/>
-      <c r="CZ3" s="63"/>
-      <c r="DA3" s="64"/>
+      <c r="CV3" s="74"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="74"/>
+      <c r="CY3" s="74"/>
+      <c r="CZ3" s="74"/>
+      <c r="DA3" s="75"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2429,20 +2433,20 @@
         <v>9</v>
       </c>
       <c r="H5" s="31" t="str">
-        <f>LEFT(TEXT(H4,"[$-en-GB]TTTT;@"),1)</f>
+        <f>LEFT(TEXT(H4,"TTTT;@"),1)</f>
         <v>M</v>
       </c>
       <c r="I5" s="31" t="str">
-        <f t="shared" ref="I5:N5" si="46">LEFT(TEXT(I4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" ref="I5:BT5" si="46">LEFT(TEXT(I4,"TTTT;@"),1)</f>
+        <v>D</v>
       </c>
       <c r="J5" s="31" t="str">
         <f t="shared" si="46"/>
-        <v>W</v>
+        <v>M</v>
       </c>
       <c r="K5" s="31" t="str">
         <f t="shared" si="46"/>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="L5" s="31" t="str">
         <f t="shared" si="46"/>
@@ -2457,379 +2461,379 @@
         <v>S</v>
       </c>
       <c r="O5" s="31" t="str">
-        <f t="shared" ref="O5" si="47">LEFT(TEXT(O4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="P5" s="31" t="str">
-        <f t="shared" ref="P5" si="48">LEFT(TEXT(P4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="Q5" s="31" t="str">
-        <f t="shared" ref="Q5" si="49">LEFT(TEXT(Q4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="R5" s="31" t="str">
-        <f t="shared" ref="R5" si="50">LEFT(TEXT(R4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="S5" s="31" t="str">
-        <f t="shared" ref="S5" si="51">LEFT(TEXT(S4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="T5" s="31" t="str">
-        <f t="shared" ref="T5" si="52">LEFT(TEXT(T4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="U5" s="31" t="str">
-        <f t="shared" ref="U5" si="53">LEFT(TEXT(U4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="V5" s="31" t="str">
-        <f t="shared" ref="V5" si="54">LEFT(TEXT(V4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="W5" s="31" t="str">
-        <f t="shared" ref="W5" si="55">LEFT(TEXT(W4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="X5" s="31" t="str">
-        <f t="shared" ref="X5" si="56">LEFT(TEXT(X4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="Y5" s="31" t="str">
-        <f t="shared" ref="Y5" si="57">LEFT(TEXT(Y4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="Z5" s="31" t="str">
-        <f t="shared" ref="Z5" si="58">LEFT(TEXT(Z4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="AA5" s="31" t="str">
-        <f t="shared" ref="AA5" si="59">LEFT(TEXT(AA4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AB5" s="31" t="str">
-        <f t="shared" ref="AB5" si="60">LEFT(TEXT(AB4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AC5" s="31" t="str">
-        <f t="shared" ref="AC5" si="61">LEFT(TEXT(AC4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="AD5" s="31" t="str">
-        <f t="shared" ref="AD5" si="62">LEFT(TEXT(AD4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AE5" s="31" t="str">
-        <f t="shared" ref="AE5" si="63">LEFT(TEXT(AE4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="AF5" s="31" t="str">
-        <f t="shared" ref="AF5" si="64">LEFT(TEXT(AF4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AG5" s="31" t="str">
-        <f t="shared" ref="AG5" si="65">LEFT(TEXT(AG4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="AH5" s="31" t="str">
-        <f t="shared" ref="AH5" si="66">LEFT(TEXT(AH4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AI5" s="31" t="str">
-        <f t="shared" ref="AI5" si="67">LEFT(TEXT(AI4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AJ5" s="31" t="str">
-        <f t="shared" ref="AJ5" si="68">LEFT(TEXT(AJ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="AK5" s="31" t="str">
-        <f t="shared" ref="AK5" si="69">LEFT(TEXT(AK4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AL5" s="31" t="str">
-        <f t="shared" ref="AL5" si="70">LEFT(TEXT(AL4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="AM5" s="31" t="str">
-        <f t="shared" ref="AM5" si="71">LEFT(TEXT(AM4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AN5" s="31" t="str">
-        <f t="shared" ref="AN5" si="72">LEFT(TEXT(AN4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="AO5" s="31" t="str">
-        <f t="shared" ref="AO5" si="73">LEFT(TEXT(AO4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AP5" s="31" t="str">
-        <f t="shared" ref="AP5" si="74">LEFT(TEXT(AP4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AQ5" s="31" t="str">
-        <f t="shared" ref="AQ5" si="75">LEFT(TEXT(AQ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="AR5" s="31" t="str">
-        <f t="shared" ref="AR5" si="76">LEFT(TEXT(AR4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AS5" s="31" t="str">
-        <f t="shared" ref="AS5" si="77">LEFT(TEXT(AS4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="AT5" s="31" t="str">
-        <f t="shared" ref="AT5" si="78">LEFT(TEXT(AT4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AU5" s="31" t="str">
-        <f t="shared" ref="AU5" si="79">LEFT(TEXT(AU4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="AV5" s="31" t="str">
-        <f t="shared" ref="AV5" si="80">LEFT(TEXT(AV4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AW5" s="31" t="str">
-        <f t="shared" ref="AW5" si="81">LEFT(TEXT(AW4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="AX5" s="31" t="str">
-        <f t="shared" ref="AX5" si="82">LEFT(TEXT(AX4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="AY5" s="31" t="str">
-        <f t="shared" ref="AY5" si="83">LEFT(TEXT(AY4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="AZ5" s="31" t="str">
-        <f t="shared" ref="AZ5" si="84">LEFT(TEXT(AZ4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="BA5" s="31" t="str">
-        <f t="shared" ref="BA5" si="85">LEFT(TEXT(BA4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BB5" s="31" t="str">
-        <f t="shared" ref="BB5" si="86">LEFT(TEXT(BB4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="BC5" s="31" t="str">
-        <f t="shared" ref="BC5" si="87">LEFT(TEXT(BC4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BD5" s="31" t="str">
-        <f t="shared" ref="BD5" si="88">LEFT(TEXT(BD4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BE5" s="31" t="str">
-        <f t="shared" ref="BE5" si="89">LEFT(TEXT(BE4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="BF5" s="31" t="str">
-        <f t="shared" ref="BF5" si="90">LEFT(TEXT(BF4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BG5" s="31" t="str">
-        <f t="shared" ref="BG5" si="91">LEFT(TEXT(BG4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="BH5" s="31" t="str">
-        <f t="shared" ref="BH5" si="92">LEFT(TEXT(BH4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BI5" s="31" t="str">
-        <f t="shared" ref="BI5" si="93">LEFT(TEXT(BI4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="BJ5" s="31" t="str">
-        <f t="shared" ref="BJ5" si="94">LEFT(TEXT(BJ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BK5" s="31" t="str">
-        <f t="shared" ref="BK5" si="95">LEFT(TEXT(BK4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BL5" s="31" t="str">
-        <f t="shared" ref="BL5" si="96">LEFT(TEXT(BL4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="BM5" s="31" t="str">
-        <f t="shared" ref="BM5" si="97">LEFT(TEXT(BM4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BN5" s="31" t="str">
-        <f t="shared" ref="BN5" si="98">LEFT(TEXT(BN4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="46"/>
+        <v>M</v>
       </c>
       <c r="BO5" s="31" t="str">
-        <f t="shared" ref="BO5" si="99">LEFT(TEXT(BO4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BP5" s="31" t="str">
-        <f t="shared" ref="BP5" si="100">LEFT(TEXT(BP4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="BQ5" s="31" t="str">
-        <f t="shared" ref="BQ5" si="101">LEFT(TEXT(BQ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BR5" s="31" t="str">
-        <f t="shared" ref="BR5" si="102">LEFT(TEXT(BR4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>S</v>
       </c>
       <c r="BS5" s="31" t="str">
-        <f t="shared" ref="BS5" si="103">LEFT(TEXT(BS4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="46"/>
         <v>M</v>
       </c>
       <c r="BT5" s="31" t="str">
-        <f t="shared" ref="BT5" si="104">LEFT(TEXT(BT4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="46"/>
+        <v>D</v>
       </c>
       <c r="BU5" s="31" t="str">
-        <f t="shared" ref="BU5" si="105">LEFT(TEXT(BU4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" ref="BU5:DA5" si="47">LEFT(TEXT(BU4,"TTTT;@"),1)</f>
+        <v>M</v>
       </c>
       <c r="BV5" s="31" t="str">
-        <f t="shared" ref="BV5" si="106">LEFT(TEXT(BV4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="BW5" s="31" t="str">
-        <f t="shared" ref="BW5" si="107">LEFT(TEXT(BW4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>F</v>
       </c>
       <c r="BX5" s="31" t="str">
-        <f t="shared" ref="BX5" si="108">LEFT(TEXT(BX4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="BY5" s="31" t="str">
-        <f t="shared" ref="BY5" si="109">LEFT(TEXT(BY4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="BZ5" s="31" t="str">
-        <f t="shared" ref="BZ5" si="110">LEFT(TEXT(BZ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>M</v>
       </c>
       <c r="CA5" s="31" t="str">
-        <f t="shared" ref="CA5" si="111">LEFT(TEXT(CA4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CB5" s="31" t="str">
-        <f t="shared" ref="CB5" si="112">LEFT(TEXT(CB4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="47"/>
+        <v>M</v>
       </c>
       <c r="CC5" s="31" t="str">
-        <f t="shared" ref="CC5" si="113">LEFT(TEXT(CC4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CD5" s="31" t="str">
-        <f t="shared" ref="CD5" si="114">LEFT(TEXT(CD4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>F</v>
       </c>
       <c r="CE5" s="31" t="str">
-        <f t="shared" ref="CE5" si="115">LEFT(TEXT(CE4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CF5" s="31" t="str">
-        <f t="shared" ref="CF5" si="116">LEFT(TEXT(CF4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CG5" s="31" t="str">
-        <f t="shared" ref="CG5" si="117">LEFT(TEXT(CG4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>M</v>
       </c>
       <c r="CH5" s="31" t="str">
-        <f t="shared" ref="CH5" si="118">LEFT(TEXT(CH4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CI5" s="31" t="str">
-        <f t="shared" ref="CI5" si="119">LEFT(TEXT(CI4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="47"/>
+        <v>M</v>
       </c>
       <c r="CJ5" s="31" t="str">
-        <f t="shared" ref="CJ5" si="120">LEFT(TEXT(CJ4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CK5" s="31" t="str">
-        <f t="shared" ref="CK5" si="121">LEFT(TEXT(CK4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>F</v>
       </c>
       <c r="CL5" s="31" t="str">
-        <f t="shared" ref="CL5" si="122">LEFT(TEXT(CL4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CM5" s="31" t="str">
-        <f t="shared" ref="CM5" si="123">LEFT(TEXT(CM4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CN5" s="31" t="str">
-        <f t="shared" ref="CN5" si="124">LEFT(TEXT(CN4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>M</v>
       </c>
       <c r="CO5" s="31" t="str">
-        <f t="shared" ref="CO5" si="125">LEFT(TEXT(CO4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CP5" s="31" t="str">
-        <f t="shared" ref="CP5" si="126">LEFT(TEXT(CP4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="47"/>
+        <v>M</v>
       </c>
       <c r="CQ5" s="31" t="str">
-        <f t="shared" ref="CQ5" si="127">LEFT(TEXT(CQ4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CR5" s="31" t="str">
-        <f t="shared" ref="CR5" si="128">LEFT(TEXT(CR4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>F</v>
       </c>
       <c r="CS5" s="31" t="str">
-        <f t="shared" ref="CS5" si="129">LEFT(TEXT(CS4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CT5" s="31" t="str">
-        <f t="shared" ref="CT5" si="130">LEFT(TEXT(CT4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="CU5" s="31" t="str">
-        <f t="shared" ref="CU5" si="131">LEFT(TEXT(CU4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>M</v>
       </c>
       <c r="CV5" s="31" t="str">
-        <f t="shared" ref="CV5" si="132">LEFT(TEXT(CV4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CW5" s="31" t="str">
-        <f t="shared" ref="CW5" si="133">LEFT(TEXT(CW4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>W</v>
+        <f t="shared" si="47"/>
+        <v>M</v>
       </c>
       <c r="CX5" s="31" t="str">
-        <f t="shared" ref="CX5" si="134">LEFT(TEXT(CX4,"[$-en-GB]TTTT;@"),1)</f>
-        <v>T</v>
+        <f t="shared" si="47"/>
+        <v>D</v>
       </c>
       <c r="CY5" s="31" t="str">
-        <f t="shared" ref="CY5" si="135">LEFT(TEXT(CY4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>F</v>
       </c>
       <c r="CZ5" s="31" t="str">
-        <f t="shared" ref="CZ5" si="136">LEFT(TEXT(CZ4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
       <c r="DA5" s="31" t="str">
-        <f t="shared" ref="DA5" si="137">LEFT(TEXT(DA4,"[$-en-GB]TTTT;@"),1)</f>
+        <f t="shared" si="47"/>
         <v>S</v>
       </c>
     </row>
-    <row r="6" spans="1:105" ht="27.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:105" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G6" t="e">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2936,17 +2940,17 @@
     </row>
     <row r="7" spans="1:105" s="2" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="str">
-        <f t="shared" ref="G7:G37" si="138">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G7:G39" si="48">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="14"/>
@@ -3050,11 +3054,11 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="66" t="s">
-        <v>30</v>
+      <c r="B8" s="71" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D8" s="33">
         <v>45922</v>
@@ -3064,7 +3068,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
       <c r="H8" s="14"/>
@@ -3168,15 +3172,15 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="67"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="35" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H9" s="14"/>
@@ -3280,13 +3284,13 @@
     </row>
     <row r="10" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D10" s="33">
         <v>45929</v>
@@ -3296,7 +3300,7 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="H10" s="14"/>
@@ -3400,15 +3404,15 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="67"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="35" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H11" s="14"/>
@@ -3512,13 +3516,13 @@
     </row>
     <row r="12" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D12" s="33">
         <v>45929</v>
@@ -3528,7 +3532,7 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
       <c r="H12" s="14"/>
@@ -3632,15 +3636,15 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="67"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="35" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H13" s="14"/>
@@ -3744,10 +3748,10 @@
     </row>
     <row r="14" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
@@ -3855,11 +3859,11 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="68" t="s">
-        <v>31</v>
+      <c r="B15" s="69" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D15" s="39">
         <v>45936</v>
@@ -3869,7 +3873,7 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="H15" s="14"/>
@@ -3973,15 +3977,15 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="58" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H16" s="14"/>
@@ -4085,11 +4089,11 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="68" t="s">
-        <v>32</v>
+      <c r="B17" s="69" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D17" s="39">
         <v>45943</v>
@@ -4098,10 +4102,7 @@
         <v>45949</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <f t="shared" si="138"/>
-        <v>7</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -4203,17 +4204,14 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="58" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10" t="str">
-        <f t="shared" si="138"/>
-        <v/>
-      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -4313,18 +4311,25 @@
       <c r="CZ18" s="14"/>
       <c r="DA18" s="14"/>
     </row>
-    <row r="19" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+    <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="39">
+        <v>45943</v>
+      </c>
+      <c r="E19" s="39">
+        <v>45949</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -4425,23 +4430,17 @@
       <c r="DA19" s="14"/>
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="44">
-        <v>45950</v>
-      </c>
-      <c r="E20" s="44">
-        <v>45963</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <f t="shared" si="138"/>
-        <v>14</v>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -4542,19 +4541,18 @@
       <c r="CZ20" s="14"/>
       <c r="DA20" s="14"/>
     </row>
-    <row r="21" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+    <row r="21" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="10" t="str">
-        <f t="shared" si="138"/>
-        <v/>
-      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -4656,22 +4654,22 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="70" t="s">
-        <v>34</v>
+      <c r="B22" s="67" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D22" s="44">
-        <v>45957</v>
+        <v>45950</v>
       </c>
       <c r="E22" s="44">
-        <v>45970</v>
+        <v>45956</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
-        <f t="shared" si="138"/>
-        <v>14</v>
+        <f t="shared" si="48"/>
+        <v>7</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -4774,15 +4772,15 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="43" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H23" s="14"/>
@@ -4886,21 +4884,21 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>11</v>
-      </c>
       <c r="D24" s="44">
-        <v>45964</v>
+        <v>45957</v>
       </c>
       <c r="E24" s="44">
-        <v>45970</v>
+        <v>45963</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="H24" s="14"/>
@@ -5004,15 +5002,15 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="43" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H25" s="14"/>
@@ -5114,16 +5112,25 @@
       <c r="CZ25" s="14"/>
       <c r="DA25" s="14"/>
     </row>
-    <row r="26" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="44">
+        <v>45957</v>
+      </c>
+      <c r="E26" s="44">
+        <v>45970</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -5225,22 +5232,16 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="49">
-        <v>45971</v>
-      </c>
-      <c r="E27" s="49">
-        <v>45984</v>
-      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10">
-        <f t="shared" si="138"/>
-        <v>14</v>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -5341,19 +5342,16 @@
       <c r="CZ27" s="14"/>
       <c r="DA27" s="14"/>
     </row>
-    <row r="28" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10" t="str">
-        <f t="shared" si="138"/>
-        <v/>
-      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -5455,21 +5453,21 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="75" t="s">
-        <v>37</v>
+      <c r="B29" s="65" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D29" s="49">
-        <v>45978</v>
+        <v>45971</v>
       </c>
       <c r="E29" s="49">
-        <v>45991</v>
+        <v>45984</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v>14</v>
       </c>
       <c r="H29" s="14"/>
@@ -5573,15 +5571,15 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="76"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="48" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H30" s="14"/>
@@ -5683,18 +5681,25 @@
       <c r="CZ30" s="14"/>
       <c r="DA30" s="14"/>
     </row>
-    <row r="31" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+    <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="49">
+        <v>45978</v>
+      </c>
+      <c r="E31" s="49">
+        <v>45991</v>
+      </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -5796,22 +5801,16 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="52">
-        <v>45992</v>
-      </c>
-      <c r="E32" s="52">
-        <v>46010</v>
-      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10">
-        <f t="shared" si="138"/>
-        <v>19</v>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -5912,19 +5911,18 @@
       <c r="CZ32" s="14"/>
       <c r="DA32" s="14"/>
     </row>
-    <row r="33" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
+    <row r="33" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="10" t="str">
-        <f t="shared" si="138"/>
-        <v/>
-      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -6026,22 +6024,22 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="72" t="s">
-        <v>28</v>
+      <c r="B34" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D34" s="52">
-        <v>46010</v>
+        <v>45971</v>
       </c>
       <c r="E34" s="52">
         <v>46010</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
-        <f t="shared" si="138"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>40</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -6144,15 +6142,15 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="73"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="51" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H35" s="14"/>
@@ -6254,18 +6252,24 @@
       <c r="CZ35" s="14"/>
       <c r="DA35" s="14"/>
     </row>
-    <row r="36" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+    <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="52">
+        <v>46010</v>
+      </c>
+      <c r="E36" s="52">
+        <v>46010</v>
+      </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10" t="str">
-        <f t="shared" si="138"/>
-        <v/>
+      <c r="G36" s="10">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -6366,141 +6370,359 @@
       <c r="CZ36" s="14"/>
       <c r="DA36" s="14"/>
     </row>
-    <row r="37" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="str">
-        <f t="shared" si="138"/>
+    <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
-      <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
-      <c r="AM37" s="15"/>
-      <c r="AN37" s="15"/>
-      <c r="AO37" s="15"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-      <c r="AR37" s="15"/>
-      <c r="AS37" s="15"/>
-      <c r="AT37" s="15"/>
-      <c r="AU37" s="15"/>
-      <c r="AV37" s="15"/>
-      <c r="AW37" s="15"/>
-      <c r="AX37" s="15"/>
-      <c r="AY37" s="15"/>
-      <c r="AZ37" s="15"/>
-      <c r="BA37" s="15"/>
-      <c r="BB37" s="15"/>
-      <c r="BC37" s="15"/>
-      <c r="BD37" s="15"/>
-      <c r="BE37" s="15"/>
-      <c r="BF37" s="15"/>
-      <c r="BG37" s="15"/>
-      <c r="BH37" s="15"/>
-      <c r="BI37" s="15"/>
-      <c r="BJ37" s="15"/>
-      <c r="BK37" s="15"/>
-      <c r="BL37" s="15"/>
-      <c r="BM37" s="15"/>
-      <c r="BN37" s="15"/>
-      <c r="BO37" s="15"/>
-      <c r="BP37" s="15"/>
-      <c r="BQ37" s="15"/>
-      <c r="BR37" s="15"/>
-      <c r="BS37" s="15"/>
-      <c r="BT37" s="15"/>
-      <c r="BU37" s="15"/>
-      <c r="BV37" s="15"/>
-      <c r="BW37" s="15"/>
-      <c r="BX37" s="15"/>
-      <c r="BY37" s="15"/>
-      <c r="BZ37" s="15"/>
-      <c r="CA37" s="15"/>
-      <c r="CB37" s="15"/>
-      <c r="CC37" s="15"/>
-      <c r="CD37" s="15"/>
-      <c r="CE37" s="15"/>
-      <c r="CF37" s="15"/>
-      <c r="CG37" s="15"/>
-      <c r="CH37" s="15"/>
-      <c r="CI37" s="15"/>
-      <c r="CJ37" s="15"/>
-      <c r="CK37" s="15"/>
-      <c r="CL37" s="15"/>
-      <c r="CM37" s="15"/>
-      <c r="CN37" s="15"/>
-      <c r="CO37" s="15"/>
-      <c r="CP37" s="15"/>
-      <c r="CQ37" s="15"/>
-      <c r="CR37" s="15"/>
-      <c r="CS37" s="15"/>
-      <c r="CT37" s="15"/>
-      <c r="CU37" s="15"/>
-      <c r="CV37" s="15"/>
-      <c r="CW37" s="15"/>
-      <c r="CX37" s="15"/>
-      <c r="CY37" s="15"/>
-      <c r="CZ37" s="15"/>
-      <c r="DA37" s="15"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
+      <c r="BN37" s="14"/>
+      <c r="BO37" s="14"/>
+      <c r="BP37" s="14"/>
+      <c r="BQ37" s="14"/>
+      <c r="BR37" s="14"/>
+      <c r="BS37" s="14"/>
+      <c r="BT37" s="14"/>
+      <c r="BU37" s="14"/>
+      <c r="BV37" s="14"/>
+      <c r="BW37" s="14"/>
+      <c r="BX37" s="14"/>
+      <c r="BY37" s="14"/>
+      <c r="BZ37" s="14"/>
+      <c r="CA37" s="14"/>
+      <c r="CB37" s="14"/>
+      <c r="CC37" s="14"/>
+      <c r="CD37" s="14"/>
+      <c r="CE37" s="14"/>
+      <c r="CF37" s="14"/>
+      <c r="CG37" s="14"/>
+      <c r="CH37" s="14"/>
+      <c r="CI37" s="14"/>
+      <c r="CJ37" s="14"/>
+      <c r="CK37" s="14"/>
+      <c r="CL37" s="14"/>
+      <c r="CM37" s="14"/>
+      <c r="CN37" s="14"/>
+      <c r="CO37" s="14"/>
+      <c r="CP37" s="14"/>
+      <c r="CQ37" s="14"/>
+      <c r="CR37" s="14"/>
+      <c r="CS37" s="14"/>
+      <c r="CT37" s="14"/>
+      <c r="CU37" s="14"/>
+      <c r="CV37" s="14"/>
+      <c r="CW37" s="14"/>
+      <c r="CX37" s="14"/>
+      <c r="CY37" s="14"/>
+      <c r="CZ37" s="14"/>
+      <c r="DA37" s="14"/>
     </row>
-    <row r="38" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="5"/>
+    <row r="38" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="14"/>
+      <c r="AZ38" s="14"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="14"/>
+      <c r="BC38" s="14"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="14"/>
+      <c r="BH38" s="14"/>
+      <c r="BI38" s="14"/>
+      <c r="BJ38" s="14"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="14"/>
+      <c r="BP38" s="14"/>
+      <c r="BQ38" s="14"/>
+      <c r="BR38" s="14"/>
+      <c r="BS38" s="14"/>
+      <c r="BT38" s="14"/>
+      <c r="BU38" s="14"/>
+      <c r="BV38" s="14"/>
+      <c r="BW38" s="14"/>
+      <c r="BX38" s="14"/>
+      <c r="BY38" s="14"/>
+      <c r="BZ38" s="14"/>
+      <c r="CA38" s="14"/>
+      <c r="CB38" s="14"/>
+      <c r="CC38" s="14"/>
+      <c r="CD38" s="14"/>
+      <c r="CE38" s="14"/>
+      <c r="CF38" s="14"/>
+      <c r="CG38" s="14"/>
+      <c r="CH38" s="14"/>
+      <c r="CI38" s="14"/>
+      <c r="CJ38" s="14"/>
+      <c r="CK38" s="14"/>
+      <c r="CL38" s="14"/>
+      <c r="CM38" s="14"/>
+      <c r="CN38" s="14"/>
+      <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
+      <c r="CT38" s="14"/>
+      <c r="CU38" s="14"/>
+      <c r="CV38" s="14"/>
+      <c r="CW38" s="14"/>
+      <c r="CX38" s="14"/>
+      <c r="CY38" s="14"/>
+      <c r="CZ38" s="14"/>
+      <c r="DA38" s="14"/>
     </row>
-    <row r="39" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="19"/>
+    <row r="39" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="15"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="15"/>
+      <c r="BV39" s="15"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="15"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="15"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="15"/>
+      <c r="CG39" s="15"/>
+      <c r="CH39" s="15"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="15"/>
+      <c r="CK39" s="15"/>
+      <c r="CL39" s="15"/>
+      <c r="CM39" s="15"/>
+      <c r="CN39" s="15"/>
+      <c r="CO39" s="15"/>
+      <c r="CP39" s="15"/>
+      <c r="CQ39" s="15"/>
+      <c r="CR39" s="15"/>
+      <c r="CS39" s="15"/>
+      <c r="CT39" s="15"/>
+      <c r="CU39" s="15"/>
+      <c r="CV39" s="15"/>
+      <c r="CW39" s="15"/>
+      <c r="CX39" s="15"/>
+      <c r="CY39" s="15"/>
+      <c r="CZ39" s="15"/>
+      <c r="DA39" s="15"/>
+    </row>
+    <row r="40" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="28">
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -6509,19 +6731,26 @@
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="V3:AB3"/>
     <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:DA37">
+  <conditionalFormatting sqref="H4:DA39">
     <cfRule type="expression" dxfId="3" priority="17">
       <formula>AND(TODAY()&gt;=H$4,TODAY()&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:DA37">
+  <conditionalFormatting sqref="H6:DA39">
     <cfRule type="expression" dxfId="2" priority="53">
       <formula>#REF!=H$4</formula>
     </cfRule>
@@ -6547,15 +6776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3d8d41c4-2d1a-4f79-aab5-2440921370ad" xsi:nil="true"/>
@@ -6564,6 +6784,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6768,20 +6997,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3d8d41c4-2d1a-4f79-aab5-2440921370ad"/>
     <ds:schemaRef ds:uri="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361A3B5-433F-4654-99C9-5376A96DFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB19638-DCB5-4463-BE69-DA9702CBF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,8 +210,8 @@
     <numFmt numFmtId="170" formatCode="d"/>
     <numFmt numFmtId="171" formatCode="[$-809]d/\ mmm\ yyyy;@"/>
     <numFmt numFmtId="172" formatCode="[$-809]d;@"/>
-    <numFmt numFmtId="177" formatCode="[$-807]d/\ mmm\ yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="[$-807]ddd\,\ d/m/yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-807]d/\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="174" formatCode="[$-807]ddd\,\ d/m/yyyy;@"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1199,6 +1199,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1220,29 +1232,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1815,7 +1815,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B18"/>
+      <selection pane="bottomLeft" activeCell="AY17" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1851,10 +1851,10 @@
       <c r="C2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="73">
         <v>45922</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1869,146 +1869,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="74">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="73">
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="74">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="73">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="74">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="73">
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="74">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="73">
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="74">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="73">
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="74">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="73">
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="74">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="73">
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="74">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="73">
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="75"/>
+      <c r="BH3" s="75"/>
+      <c r="BI3" s="75"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="74">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="73">
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="74">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="74"/>
-      <c r="BU3" s="74"/>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="74"/>
-      <c r="BY3" s="75"/>
-      <c r="BZ3" s="73">
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="75"/>
+      <c r="BY3" s="76"/>
+      <c r="BZ3" s="74">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="74"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="74"/>
-      <c r="CD3" s="74"/>
-      <c r="CE3" s="74"/>
-      <c r="CF3" s="75"/>
-      <c r="CG3" s="73">
+      <c r="CA3" s="75"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="75"/>
+      <c r="CD3" s="75"/>
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="76"/>
+      <c r="CG3" s="74">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="74"/>
-      <c r="CI3" s="74"/>
-      <c r="CJ3" s="74"/>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="74"/>
-      <c r="CM3" s="75"/>
-      <c r="CN3" s="73">
+      <c r="CH3" s="75"/>
+      <c r="CI3" s="75"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="75"/>
+      <c r="CL3" s="75"/>
+      <c r="CM3" s="76"/>
+      <c r="CN3" s="74">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="74"/>
-      <c r="CP3" s="74"/>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="74"/>
-      <c r="CS3" s="74"/>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="73">
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="75"/>
+      <c r="CT3" s="76"/>
+      <c r="CU3" s="74">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="74"/>
-      <c r="CW3" s="74"/>
-      <c r="CX3" s="74"/>
-      <c r="CY3" s="74"/>
-      <c r="CZ3" s="74"/>
-      <c r="DA3" s="75"/>
+      <c r="CV3" s="75"/>
+      <c r="CW3" s="75"/>
+      <c r="CX3" s="75"/>
+      <c r="CY3" s="75"/>
+      <c r="CZ3" s="75"/>
+      <c r="DA3" s="76"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="62" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3172,16 +3172,20 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E9" s="33">
+        <v>45935</v>
+      </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -3286,7 +3290,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3404,16 +3408,20 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="72"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="33">
+        <v>45929</v>
+      </c>
+      <c r="E11" s="33">
+        <v>45935</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -3518,7 +3526,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3636,16 +3644,20 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="72"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E13" s="33">
+        <v>45942</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -3859,7 +3871,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3977,16 +3989,20 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="39">
+        <v>45929</v>
+      </c>
+      <c r="E16" s="39">
+        <v>45942</v>
+      </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -4089,7 +4105,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4204,12 +4220,16 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="70"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="39">
+        <v>45936</v>
+      </c>
+      <c r="E18" s="39">
+        <v>45949</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="14"/>
@@ -4313,7 +4333,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4431,16 +4451,20 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="70"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="39">
+        <v>45936</v>
+      </c>
+      <c r="E20" s="39">
+        <v>45949</v>
+      </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="10" t="str">
+      <c r="G20" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -4654,7 +4678,7 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="71" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4772,7 +4796,7 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="68"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="43" t="s">
         <v>36</v>
       </c>
@@ -4884,7 +4908,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="71" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5002,7 +5026,7 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="68"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
@@ -5114,7 +5138,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5232,7 +5256,7 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="43" t="s">
         <v>36</v>
       </c>
@@ -5453,7 +5477,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5571,7 +5595,7 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="66"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="48" t="s">
         <v>36</v>
       </c>
@@ -5683,7 +5707,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="69" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5801,7 +5825,7 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="66"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="48" t="s">
         <v>36</v>
       </c>
@@ -6024,7 +6048,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -6142,7 +6166,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="64"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="51" t="s">
         <v>36</v>
       </c>
@@ -6254,7 +6278,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -6372,7 +6396,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="63"/>
+      <c r="B37" s="67"/>
       <c r="C37" s="51" t="s">
         <v>36</v>
       </c>
@@ -6716,27 +6740,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BD3"/>
+    <mergeCell ref="BE3:BK3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="AJ3:AP3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="CU3:DA3"/>
     <mergeCell ref="BL3:BR3"/>
     <mergeCell ref="BS3:BY3"/>
     <mergeCell ref="BZ3:CF3"/>
     <mergeCell ref="CG3:CM3"/>
     <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BD3"/>
-    <mergeCell ref="BE3:BK3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="V3:AB3"/>
     <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="AJ3:AP3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B36:B37"/>
@@ -6744,6 +6766,8 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA39">
     <cfRule type="expression" dxfId="3" priority="17">

--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB19638-DCB5-4463-BE69-DA9702CBF276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0048C-DB1D-4F6D-A38F-A7AC3FCC8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,17 +1199,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1231,18 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1814,8 +1814,8 @@
   <dimension ref="A1:DA41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY17" sqref="AY17"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1851,10 +1851,10 @@
       <c r="C2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="69">
         <v>45922</v>
       </c>
-      <c r="E2" s="73"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1869,146 +1869,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="62">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="74">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="62">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="74">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="62">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="74">
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="74">
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="62">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="74">
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="62">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="74">
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="62">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="74">
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="62">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
-      <c r="BH3" s="75"/>
-      <c r="BI3" s="75"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="74">
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="62">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="76"/>
-      <c r="BS3" s="74">
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="62">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="75"/>
-      <c r="BY3" s="76"/>
-      <c r="BZ3" s="74">
+      <c r="BT3" s="63"/>
+      <c r="BU3" s="63"/>
+      <c r="BV3" s="63"/>
+      <c r="BW3" s="63"/>
+      <c r="BX3" s="63"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="62">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="75"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="76"/>
-      <c r="CG3" s="74">
+      <c r="CA3" s="63"/>
+      <c r="CB3" s="63"/>
+      <c r="CC3" s="63"/>
+      <c r="CD3" s="63"/>
+      <c r="CE3" s="63"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="62">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="75"/>
-      <c r="CI3" s="75"/>
-      <c r="CJ3" s="75"/>
-      <c r="CK3" s="75"/>
-      <c r="CL3" s="75"/>
-      <c r="CM3" s="76"/>
-      <c r="CN3" s="74">
+      <c r="CH3" s="63"/>
+      <c r="CI3" s="63"/>
+      <c r="CJ3" s="63"/>
+      <c r="CK3" s="63"/>
+      <c r="CL3" s="63"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="62">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="75"/>
-      <c r="CQ3" s="75"/>
-      <c r="CR3" s="75"/>
-      <c r="CS3" s="75"/>
-      <c r="CT3" s="76"/>
-      <c r="CU3" s="74">
+      <c r="CO3" s="63"/>
+      <c r="CP3" s="63"/>
+      <c r="CQ3" s="63"/>
+      <c r="CR3" s="63"/>
+      <c r="CS3" s="63"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="62">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="75"/>
-      <c r="CW3" s="75"/>
-      <c r="CX3" s="75"/>
-      <c r="CY3" s="75"/>
-      <c r="CZ3" s="75"/>
-      <c r="DA3" s="76"/>
+      <c r="CV3" s="63"/>
+      <c r="CW3" s="63"/>
+      <c r="CX3" s="63"/>
+      <c r="CY3" s="63"/>
+      <c r="CZ3" s="63"/>
+      <c r="DA3" s="64"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3172,7 +3172,7 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="63"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="35" t="s">
         <v>36</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="67" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="63"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="67" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3644,7 +3644,7 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="63"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="35" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3989,7 +3989,7 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4115,7 +4115,7 @@
         <v>45943</v>
       </c>
       <c r="E17" s="39">
-        <v>45949</v>
+        <v>45956</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="58" t="s">
         <v>36</v>
       </c>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4343,12 +4343,12 @@
         <v>45943</v>
       </c>
       <c r="E19" s="39">
-        <v>45949</v>
+        <v>45956</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="58" t="s">
         <v>36</v>
       </c>
@@ -4678,17 +4678,17 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="75" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="44">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="E22" s="44">
-        <v>45956</v>
+        <v>45963</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="72"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="43" t="s">
         <v>36</v>
       </c>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="75" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5026,7 +5026,7 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="72"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="75" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5256,7 +5256,7 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="72"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="43" t="s">
         <v>36</v>
       </c>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="73" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5595,7 +5595,7 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="70"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="48" t="s">
         <v>36</v>
       </c>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="73" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5825,7 +5825,7 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="70"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="48" t="s">
         <v>36</v>
       </c>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="70" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -6166,7 +6166,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="68"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="51" t="s">
         <v>36</v>
       </c>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="70" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -6396,7 +6396,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="67"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="51" t="s">
         <v>36</v>
       </c>
@@ -6740,6 +6740,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -6748,26 +6766,8 @@
     <mergeCell ref="AJ3:AP3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA39">
     <cfRule type="expression" dxfId="3" priority="17">
@@ -6811,15 +6811,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7020,6 +7011,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7032,14 +7032,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7056,4 +7048,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0048C-DB1D-4F6D-A38F-A7AC3FCC8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F0AAE-2FB0-447E-9C73-262AC1D7CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,6 +1199,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,30 +1242,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
@@ -1815,7 +1815,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1869,146 +1869,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="70">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="62">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="70">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="70">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="62">
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="70">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="62">
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="70">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="62">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="70">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="62">
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="70">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="62">
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="70">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="62">
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="70">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="62">
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="70">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="62">
+      <c r="BT3" s="71"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="71"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="71"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="70">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="63"/>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="62">
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="71"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="71"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="70">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="63"/>
-      <c r="CI3" s="63"/>
-      <c r="CJ3" s="63"/>
-      <c r="CK3" s="63"/>
-      <c r="CL3" s="63"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="62">
+      <c r="CH3" s="71"/>
+      <c r="CI3" s="71"/>
+      <c r="CJ3" s="71"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="71"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="70">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="63"/>
-      <c r="CP3" s="63"/>
-      <c r="CQ3" s="63"/>
-      <c r="CR3" s="63"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="62">
+      <c r="CO3" s="71"/>
+      <c r="CP3" s="71"/>
+      <c r="CQ3" s="71"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="70">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="63"/>
-      <c r="CW3" s="63"/>
-      <c r="CX3" s="63"/>
-      <c r="CY3" s="63"/>
-      <c r="CZ3" s="63"/>
-      <c r="DA3" s="64"/>
+      <c r="CV3" s="71"/>
+      <c r="CW3" s="71"/>
+      <c r="CX3" s="71"/>
+      <c r="CY3" s="71"/>
+      <c r="CZ3" s="71"/>
+      <c r="DA3" s="72"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3172,7 +3172,7 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="35" t="s">
         <v>36</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="75" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="68"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3644,7 +3644,7 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="68"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="35" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3989,7 +3989,7 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="73" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="66"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="58" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>45936</v>
       </c>
       <c r="E18" s="39">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="73" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4451,7 +4451,7 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="58" t="s">
         <v>36</v>
       </c>
@@ -4459,12 +4459,12 @@
         <v>45936</v>
       </c>
       <c r="E20" s="39">
-        <v>45949</v>
+        <v>45952</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10">
         <f t="shared" si="48"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="62" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4796,16 +4796,20 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="76"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="44">
+        <v>45951</v>
+      </c>
+      <c r="E23" s="44">
+        <v>45957</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="10" t="str">
+      <c r="G23" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -4908,7 +4912,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5026,16 +5030,20 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="76"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="44">
+        <v>45953</v>
+      </c>
+      <c r="E25" s="44">
+        <v>45957</v>
+      </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -5138,7 +5146,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="62" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5256,16 +5264,20 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="76"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="44">
+        <v>45953</v>
+      </c>
+      <c r="E27" s="44">
+        <v>45957</v>
+      </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -5477,7 +5489,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5595,7 +5607,7 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="74"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="48" t="s">
         <v>36</v>
       </c>
@@ -5707,7 +5719,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="67" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5825,7 +5837,7 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="74"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="48" t="s">
         <v>36</v>
       </c>
@@ -6048,7 +6060,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="64" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -6166,7 +6178,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="72"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="51" t="s">
         <v>36</v>
       </c>
@@ -6278,7 +6290,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -6396,7 +6408,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="71"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="51" t="s">
         <v>36</v>
       </c>
@@ -6740,24 +6752,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -6768,6 +6762,24 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA39">
     <cfRule type="expression" dxfId="3" priority="17">
@@ -6811,6 +6823,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7011,15 +7032,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7032,6 +7044,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7048,12 +7068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F0AAE-2FB0-447E-9C73-262AC1D7CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FD8BB-62D7-4AD9-8A57-E44972E73FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1199,6 +1199,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1219,30 +1243,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1815,7 +1815,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomLeft" activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1869,146 +1869,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="62">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="70">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="62">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="70">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="62">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="70">
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="70">
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="62">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="70">
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="62">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="70">
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="62">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="70">
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="62">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="70">
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="62">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="70">
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="62">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="70">
+      <c r="BT3" s="63"/>
+      <c r="BU3" s="63"/>
+      <c r="BV3" s="63"/>
+      <c r="BW3" s="63"/>
+      <c r="BX3" s="63"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="62">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="70">
+      <c r="CA3" s="63"/>
+      <c r="CB3" s="63"/>
+      <c r="CC3" s="63"/>
+      <c r="CD3" s="63"/>
+      <c r="CE3" s="63"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="62">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="70">
+      <c r="CH3" s="63"/>
+      <c r="CI3" s="63"/>
+      <c r="CJ3" s="63"/>
+      <c r="CK3" s="63"/>
+      <c r="CL3" s="63"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="62">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="70">
+      <c r="CO3" s="63"/>
+      <c r="CP3" s="63"/>
+      <c r="CQ3" s="63"/>
+      <c r="CR3" s="63"/>
+      <c r="CS3" s="63"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="62">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="72"/>
+      <c r="CV3" s="63"/>
+      <c r="CW3" s="63"/>
+      <c r="CX3" s="63"/>
+      <c r="CY3" s="63"/>
+      <c r="CZ3" s="63"/>
+      <c r="DA3" s="64"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3172,7 +3172,7 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="76"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="35" t="s">
         <v>36</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="67" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3408,7 +3408,7 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="35" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="67" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3644,7 +3644,7 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="76"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="35" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3989,7 +3989,7 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="74"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="58" t="s">
         <v>36</v>
       </c>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="74"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="58" t="s">
         <v>36</v>
       </c>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4451,7 +4451,7 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="74"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="58" t="s">
         <v>36</v>
       </c>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="70" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="63"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="43" t="s">
         <v>36</v>
       </c>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5030,7 +5030,7 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="63"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
@@ -5038,12 +5038,12 @@
         <v>45953</v>
       </c>
       <c r="E25" s="44">
-        <v>45957</v>
+        <v>45963</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="70" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5264,7 +5264,7 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="63"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="43" t="s">
         <v>36</v>
       </c>
@@ -5272,12 +5272,12 @@
         <v>45953</v>
       </c>
       <c r="E27" s="44">
-        <v>45957</v>
+        <v>45963</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="75" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5607,7 +5607,7 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="68"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="48" t="s">
         <v>36</v>
       </c>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5837,7 +5837,7 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="68"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="48" t="s">
         <v>36</v>
       </c>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="72" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -6178,7 +6178,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="74"/>
       <c r="C35" s="51" t="s">
         <v>36</v>
       </c>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -6408,7 +6408,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="65"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="51" t="s">
         <v>36</v>
       </c>
@@ -6752,6 +6752,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -6762,24 +6780,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA39">
     <cfRule type="expression" dxfId="3" priority="17">
@@ -6823,15 +6823,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7032,6 +7023,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7044,14 +7044,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7068,4 +7060,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783FD8BB-62D7-4AD9-8A57-E44972E73FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EBE214-05D0-411D-A0F8-9460AAF8604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -142,9 +142,6 @@
     <t>Phase 4 Anwenderumgebung entwickeln</t>
   </si>
   <si>
-    <t>Phase 5 Bericht schreiben</t>
-  </si>
-  <si>
     <t>Bericht schreiben</t>
   </si>
   <si>
@@ -194,6 +191,18 @@
   </si>
   <si>
     <t>Erweiterung System für Nutzung in PSO</t>
+  </si>
+  <si>
+    <t>Phase 5 PSO anwenden auf use-case</t>
+  </si>
+  <si>
+    <t>Phase 6 Bericht schreiben</t>
+  </si>
+  <si>
+    <t>PID-Parameter für Voice-Coil finden</t>
+  </si>
+  <si>
+    <t>Parameter an echtem System testen</t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1208,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,30 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1811,11 +1820,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DA41"/>
+  <dimension ref="A1:DA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS30" sqref="AS30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CD30" sqref="CD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1858,7 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="69">
         <v>45922</v>
@@ -1864,151 +1873,151 @@
         <v>19</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="70">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="62">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="70">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="70">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="62">
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="70">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="62">
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="70">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="62">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="70">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="62">
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="70">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="62">
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="70">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="62">
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="70">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="62">
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="70">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="62">
+      <c r="BT3" s="71"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="71"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="71"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="70">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="63"/>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="62">
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="71"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="71"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="70">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="63"/>
-      <c r="CI3" s="63"/>
-      <c r="CJ3" s="63"/>
-      <c r="CK3" s="63"/>
-      <c r="CL3" s="63"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="62">
+      <c r="CH3" s="71"/>
+      <c r="CI3" s="71"/>
+      <c r="CJ3" s="71"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="71"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="70">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="63"/>
-      <c r="CP3" s="63"/>
-      <c r="CQ3" s="63"/>
-      <c r="CR3" s="63"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="62">
+      <c r="CO3" s="71"/>
+      <c r="CP3" s="71"/>
+      <c r="CQ3" s="71"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="70">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="63"/>
-      <c r="CW3" s="63"/>
-      <c r="CX3" s="63"/>
-      <c r="CY3" s="63"/>
-      <c r="CZ3" s="63"/>
-      <c r="DA3" s="64"/>
+      <c r="CV3" s="71"/>
+      <c r="CW3" s="71"/>
+      <c r="CX3" s="71"/>
+      <c r="CY3" s="71"/>
+      <c r="CZ3" s="71"/>
+      <c r="DA3" s="72"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -2830,10 +2839,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
       </c>
       <c r="G6" t="e">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2950,7 +2959,7 @@
       <c r="E7" s="34"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="str">
-        <f t="shared" ref="G7:G39" si="48">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G7:G44" si="48">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H7" s="14"/>
@@ -3054,11 +3063,11 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="67" t="s">
-        <v>27</v>
+      <c r="B8" s="75" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="33">
         <v>45922</v>
@@ -3172,9 +3181,9 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="33">
         <v>45922</v>
@@ -3290,11 +3299,11 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>37</v>
+      <c r="B10" s="75" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="33">
         <v>45929</v>
@@ -3408,9 +3417,9 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="68"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="33">
         <v>45929</v>
@@ -3526,11 +3535,11 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="33">
         <v>45929</v>
@@ -3644,9 +3653,9 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="68"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="33">
         <v>45936</v>
@@ -3871,11 +3880,11 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="65" t="s">
-        <v>40</v>
+      <c r="B15" s="73" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="39">
         <v>45936</v>
@@ -3989,9 +3998,9 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="39">
         <v>45929</v>
@@ -4105,11 +4114,11 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="65" t="s">
-        <v>39</v>
+      <c r="B17" s="73" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="39">
         <v>45943</v>
@@ -4220,9 +4229,9 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="66"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="39">
         <v>45936</v>
@@ -4333,11 +4342,11 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="65" t="s">
-        <v>38</v>
+      <c r="B19" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="39">
         <v>45943</v>
@@ -4451,9 +4460,9 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="39">
         <v>45936</v>
@@ -4678,11 +4687,11 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="70" t="s">
-        <v>41</v>
+      <c r="B22" s="62" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="44">
         <v>45957</v>
@@ -4796,9 +4805,9 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="44">
         <v>45951</v>
@@ -4912,11 +4921,11 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="70" t="s">
-        <v>28</v>
+      <c r="B24" s="62" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="44">
         <v>45957</v>
@@ -5030,9 +5039,9 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="44">
         <v>45953</v>
@@ -5146,11 +5155,11 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="70" t="s">
-        <v>29</v>
+      <c r="B26" s="62" t="s">
+        <v>28</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="44">
         <v>45957</v>
@@ -5264,9 +5273,9 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="71"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="44">
         <v>45953</v>
@@ -5489,11 +5498,11 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="75" t="s">
-        <v>30</v>
+      <c r="B29" s="67" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="49">
         <v>45971</v>
@@ -5607,9 +5616,9 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="76"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -5719,11 +5728,11 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="75" t="s">
-        <v>31</v>
+      <c r="B31" s="67" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="49">
         <v>45978</v>
@@ -5837,9 +5846,9 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="76"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
@@ -5948,15 +5957,15 @@
       <c r="DA32" s="14"/>
     </row>
     <row r="33" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="14"/>
@@ -6059,23 +6068,23 @@
       <c r="DA33" s="14"/>
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="52">
-        <v>45971</v>
-      </c>
-      <c r="E34" s="52">
-        <v>46010</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="39">
+        <v>45992</v>
+      </c>
+      <c r="E34" s="39">
+        <v>45998</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
         <f t="shared" si="48"/>
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -6177,13 +6186,13 @@
       <c r="DA34" s="14"/>
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="74"/>
-      <c r="C35" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="str">
         <f t="shared" si="48"/>
@@ -6289,24 +6298,21 @@
       <c r="DA35" s="14"/>
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="52">
-        <v>46010</v>
-      </c>
-      <c r="E36" s="52">
-        <v>46010</v>
+      <c r="A36" s="18"/>
+      <c r="B36" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="39">
+        <v>45992</v>
+      </c>
+      <c r="E36" s="39">
+        <v>45998</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -6407,18 +6413,15 @@
       <c r="DA36" s="14"/>
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -6520,17 +6523,16 @@
     </row>
     <row r="38" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -6630,146 +6632,700 @@
       <c r="CZ38" s="14"/>
       <c r="DA38" s="14"/>
     </row>
-    <row r="39" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="str">
+    <row r="39" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="52">
+        <v>45971</v>
+      </c>
+      <c r="E39" s="52">
+        <v>46010</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
+        <f t="shared" si="48"/>
+        <v>40</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AS39" s="14"/>
+      <c r="AT39" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="14"/>
+      <c r="AZ39" s="14"/>
+      <c r="BA39" s="14"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="14"/>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="14"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
+      <c r="BP39" s="14"/>
+      <c r="BQ39" s="14"/>
+      <c r="BR39" s="14"/>
+      <c r="BS39" s="14"/>
+      <c r="BT39" s="14"/>
+      <c r="BU39" s="14"/>
+      <c r="BV39" s="14"/>
+      <c r="BW39" s="14"/>
+      <c r="BX39" s="14"/>
+      <c r="BY39" s="14"/>
+      <c r="BZ39" s="14"/>
+      <c r="CA39" s="14"/>
+      <c r="CB39" s="14"/>
+      <c r="CC39" s="14"/>
+      <c r="CD39" s="14"/>
+      <c r="CE39" s="14"/>
+      <c r="CF39" s="14"/>
+      <c r="CG39" s="14"/>
+      <c r="CH39" s="14"/>
+      <c r="CI39" s="14"/>
+      <c r="CJ39" s="14"/>
+      <c r="CK39" s="14"/>
+      <c r="CL39" s="14"/>
+      <c r="CM39" s="14"/>
+      <c r="CN39" s="14"/>
+      <c r="CO39" s="14"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
+      <c r="CS39" s="14"/>
+      <c r="CT39" s="14"/>
+      <c r="CU39" s="14"/>
+      <c r="CV39" s="14"/>
+      <c r="CW39" s="14"/>
+      <c r="CX39" s="14"/>
+      <c r="CY39" s="14"/>
+      <c r="CZ39" s="14"/>
+      <c r="DA39" s="14"/>
+    </row>
+    <row r="40" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="15"/>
-      <c r="AW39" s="15"/>
-      <c r="AX39" s="15"/>
-      <c r="AY39" s="15"/>
-      <c r="AZ39" s="15"/>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="15"/>
-      <c r="BD39" s="15"/>
-      <c r="BE39" s="15"/>
-      <c r="BF39" s="15"/>
-      <c r="BG39" s="15"/>
-      <c r="BH39" s="15"/>
-      <c r="BI39" s="15"/>
-      <c r="BJ39" s="15"/>
-      <c r="BK39" s="15"/>
-      <c r="BL39" s="15"/>
-      <c r="BM39" s="15"/>
-      <c r="BN39" s="15"/>
-      <c r="BO39" s="15"/>
-      <c r="BP39" s="15"/>
-      <c r="BQ39" s="15"/>
-      <c r="BR39" s="15"/>
-      <c r="BS39" s="15"/>
-      <c r="BT39" s="15"/>
-      <c r="BU39" s="15"/>
-      <c r="BV39" s="15"/>
-      <c r="BW39" s="15"/>
-      <c r="BX39" s="15"/>
-      <c r="BY39" s="15"/>
-      <c r="BZ39" s="15"/>
-      <c r="CA39" s="15"/>
-      <c r="CB39" s="15"/>
-      <c r="CC39" s="15"/>
-      <c r="CD39" s="15"/>
-      <c r="CE39" s="15"/>
-      <c r="CF39" s="15"/>
-      <c r="CG39" s="15"/>
-      <c r="CH39" s="15"/>
-      <c r="CI39" s="15"/>
-      <c r="CJ39" s="15"/>
-      <c r="CK39" s="15"/>
-      <c r="CL39" s="15"/>
-      <c r="CM39" s="15"/>
-      <c r="CN39" s="15"/>
-      <c r="CO39" s="15"/>
-      <c r="CP39" s="15"/>
-      <c r="CQ39" s="15"/>
-      <c r="CR39" s="15"/>
-      <c r="CS39" s="15"/>
-      <c r="CT39" s="15"/>
-      <c r="CU39" s="15"/>
-      <c r="CV39" s="15"/>
-      <c r="CW39" s="15"/>
-      <c r="CX39" s="15"/>
-      <c r="CY39" s="15"/>
-      <c r="CZ39" s="15"/>
-      <c r="DA39" s="15"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
+      <c r="BP40" s="14"/>
+      <c r="BQ40" s="14"/>
+      <c r="BR40" s="14"/>
+      <c r="BS40" s="14"/>
+      <c r="BT40" s="14"/>
+      <c r="BU40" s="14"/>
+      <c r="BV40" s="14"/>
+      <c r="BW40" s="14"/>
+      <c r="BX40" s="14"/>
+      <c r="BY40" s="14"/>
+      <c r="BZ40" s="14"/>
+      <c r="CA40" s="14"/>
+      <c r="CB40" s="14"/>
+      <c r="CC40" s="14"/>
+      <c r="CD40" s="14"/>
+      <c r="CE40" s="14"/>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="14"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="14"/>
+      <c r="CJ40" s="14"/>
+      <c r="CK40" s="14"/>
+      <c r="CL40" s="14"/>
+      <c r="CM40" s="14"/>
+      <c r="CN40" s="14"/>
+      <c r="CO40" s="14"/>
+      <c r="CP40" s="14"/>
+      <c r="CQ40" s="14"/>
+      <c r="CR40" s="14"/>
+      <c r="CS40" s="14"/>
+      <c r="CT40" s="14"/>
+      <c r="CU40" s="14"/>
+      <c r="CV40" s="14"/>
+      <c r="CW40" s="14"/>
+      <c r="CX40" s="14"/>
+      <c r="CY40" s="14"/>
+      <c r="CZ40" s="14"/>
+      <c r="DA40" s="14"/>
     </row>
-    <row r="40" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="5"/>
+    <row r="41" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="52">
+        <v>46010</v>
+      </c>
+      <c r="E41" s="52">
+        <v>46010</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="14"/>
+      <c r="AZ41" s="14"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="14"/>
+      <c r="BH41" s="14"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
+      <c r="BP41" s="14"/>
+      <c r="BQ41" s="14"/>
+      <c r="BR41" s="14"/>
+      <c r="BS41" s="14"/>
+      <c r="BT41" s="14"/>
+      <c r="BU41" s="14"/>
+      <c r="BV41" s="14"/>
+      <c r="BW41" s="14"/>
+      <c r="BX41" s="14"/>
+      <c r="BY41" s="14"/>
+      <c r="BZ41" s="14"/>
+      <c r="CA41" s="14"/>
+      <c r="CB41" s="14"/>
+      <c r="CC41" s="14"/>
+      <c r="CD41" s="14"/>
+      <c r="CE41" s="14"/>
+      <c r="CF41" s="14"/>
+      <c r="CG41" s="14"/>
+      <c r="CH41" s="14"/>
+      <c r="CI41" s="14"/>
+      <c r="CJ41" s="14"/>
+      <c r="CK41" s="14"/>
+      <c r="CL41" s="14"/>
+      <c r="CM41" s="14"/>
+      <c r="CN41" s="14"/>
+      <c r="CO41" s="14"/>
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
+      <c r="CR41" s="14"/>
+      <c r="CS41" s="14"/>
+      <c r="CT41" s="14"/>
+      <c r="CU41" s="14"/>
+      <c r="CV41" s="14"/>
+      <c r="CW41" s="14"/>
+      <c r="CX41" s="14"/>
+      <c r="CY41" s="14"/>
+      <c r="CZ41" s="14"/>
+      <c r="DA41" s="14"/>
     </row>
-    <row r="41" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="19"/>
+    <row r="42" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="14"/>
+      <c r="AZ42" s="14"/>
+      <c r="BA42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="14"/>
+      <c r="BH42" s="14"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="14"/>
+      <c r="BO42" s="14"/>
+      <c r="BP42" s="14"/>
+      <c r="BQ42" s="14"/>
+      <c r="BR42" s="14"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="14"/>
+      <c r="BU42" s="14"/>
+      <c r="BV42" s="14"/>
+      <c r="BW42" s="14"/>
+      <c r="BX42" s="14"/>
+      <c r="BY42" s="14"/>
+      <c r="BZ42" s="14"/>
+      <c r="CA42" s="14"/>
+      <c r="CB42" s="14"/>
+      <c r="CC42" s="14"/>
+      <c r="CD42" s="14"/>
+      <c r="CE42" s="14"/>
+      <c r="CF42" s="14"/>
+      <c r="CG42" s="14"/>
+      <c r="CH42" s="14"/>
+      <c r="CI42" s="14"/>
+      <c r="CJ42" s="14"/>
+      <c r="CK42" s="14"/>
+      <c r="CL42" s="14"/>
+      <c r="CM42" s="14"/>
+      <c r="CN42" s="14"/>
+      <c r="CO42" s="14"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
+      <c r="CS42" s="14"/>
+      <c r="CT42" s="14"/>
+      <c r="CU42" s="14"/>
+      <c r="CV42" s="14"/>
+      <c r="CW42" s="14"/>
+      <c r="CX42" s="14"/>
+      <c r="CY42" s="14"/>
+      <c r="CZ42" s="14"/>
+      <c r="DA42" s="14"/>
+    </row>
+    <row r="43" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="14"/>
+      <c r="AZ43" s="14"/>
+      <c r="BA43" s="14"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="14"/>
+      <c r="BF43" s="14"/>
+      <c r="BG43" s="14"/>
+      <c r="BH43" s="14"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="14"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="14"/>
+      <c r="BM43" s="14"/>
+      <c r="BN43" s="14"/>
+      <c r="BO43" s="14"/>
+      <c r="BP43" s="14"/>
+      <c r="BQ43" s="14"/>
+      <c r="BR43" s="14"/>
+      <c r="BS43" s="14"/>
+      <c r="BT43" s="14"/>
+      <c r="BU43" s="14"/>
+      <c r="BV43" s="14"/>
+      <c r="BW43" s="14"/>
+      <c r="BX43" s="14"/>
+      <c r="BY43" s="14"/>
+      <c r="BZ43" s="14"/>
+      <c r="CA43" s="14"/>
+      <c r="CB43" s="14"/>
+      <c r="CC43" s="14"/>
+      <c r="CD43" s="14"/>
+      <c r="CE43" s="14"/>
+      <c r="CF43" s="14"/>
+      <c r="CG43" s="14"/>
+      <c r="CH43" s="14"/>
+      <c r="CI43" s="14"/>
+      <c r="CJ43" s="14"/>
+      <c r="CK43" s="14"/>
+      <c r="CL43" s="14"/>
+      <c r="CM43" s="14"/>
+      <c r="CN43" s="14"/>
+      <c r="CO43" s="14"/>
+      <c r="CP43" s="14"/>
+      <c r="CQ43" s="14"/>
+      <c r="CR43" s="14"/>
+      <c r="CS43" s="14"/>
+      <c r="CT43" s="14"/>
+      <c r="CU43" s="14"/>
+      <c r="CV43" s="14"/>
+      <c r="CW43" s="14"/>
+      <c r="CX43" s="14"/>
+      <c r="CY43" s="14"/>
+      <c r="CZ43" s="14"/>
+      <c r="DA43" s="14"/>
+    </row>
+    <row r="44" spans="1:105" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="15"/>
+      <c r="BV44" s="15"/>
+      <c r="BW44" s="15"/>
+      <c r="BX44" s="15"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="15"/>
+      <c r="CA44" s="15"/>
+      <c r="CB44" s="15"/>
+      <c r="CC44" s="15"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="15"/>
+      <c r="CF44" s="15"/>
+      <c r="CG44" s="15"/>
+      <c r="CH44" s="15"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="15"/>
+      <c r="CK44" s="15"/>
+      <c r="CL44" s="15"/>
+      <c r="CM44" s="15"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="15"/>
+      <c r="CP44" s="15"/>
+      <c r="CQ44" s="15"/>
+      <c r="CR44" s="15"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="15"/>
+      <c r="CU44" s="15"/>
+      <c r="CV44" s="15"/>
+      <c r="CW44" s="15"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="15"/>
+      <c r="CZ44" s="15"/>
+      <c r="DA44" s="15"/>
+    </row>
+    <row r="45" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
+  <mergeCells count="30">
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -6780,13 +7336,33 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:DA39">
+  <conditionalFormatting sqref="H4:DA44">
     <cfRule type="expression" dxfId="3" priority="17">
       <formula>AND(TODAY()&gt;=H$4,TODAY()&lt;I$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:DA39">
+  <conditionalFormatting sqref="H6:DA44">
     <cfRule type="expression" dxfId="2" priority="53">
       <formula>#REF!=H$4</formula>
     </cfRule>
@@ -6797,7 +7373,7 @@
       <formula>AND(task_end&gt;=H$4,task_start&lt;I$4,$C6=$D$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -6823,6 +7399,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7023,15 +7608,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7044,6 +7620,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7060,12 +7644,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EBE214-05D0-411D-A0F8-9460AAF8604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14B0C5-22A1-474D-9E18-D8A49B0038D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,6 +1208,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1228,30 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1822,9 +1822,9 @@
   </sheetPr>
   <dimension ref="A1:DA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CD30" sqref="CD30"/>
+      <selection pane="bottomLeft" activeCell="BX36" sqref="BX36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1878,146 +1878,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="62">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="70">
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="62">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="70">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="62">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="70">
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="62">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="70">
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="62">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="70">
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="62">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="70">
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="62">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="70">
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="62">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="70">
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="62">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="70">
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="62">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="70">
+      <c r="BT3" s="63"/>
+      <c r="BU3" s="63"/>
+      <c r="BV3" s="63"/>
+      <c r="BW3" s="63"/>
+      <c r="BX3" s="63"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="62">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="70">
+      <c r="CA3" s="63"/>
+      <c r="CB3" s="63"/>
+      <c r="CC3" s="63"/>
+      <c r="CD3" s="63"/>
+      <c r="CE3" s="63"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="62">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="70">
+      <c r="CH3" s="63"/>
+      <c r="CI3" s="63"/>
+      <c r="CJ3" s="63"/>
+      <c r="CK3" s="63"/>
+      <c r="CL3" s="63"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="62">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="70">
+      <c r="CO3" s="63"/>
+      <c r="CP3" s="63"/>
+      <c r="CQ3" s="63"/>
+      <c r="CR3" s="63"/>
+      <c r="CS3" s="63"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="62">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="72"/>
+      <c r="CV3" s="63"/>
+      <c r="CW3" s="63"/>
+      <c r="CX3" s="63"/>
+      <c r="CY3" s="63"/>
+      <c r="CZ3" s="63"/>
+      <c r="DA3" s="64"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3063,7 +3063,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3181,7 +3181,7 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="76"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="35" t="s">
         <v>35</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="67" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3417,7 +3417,7 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="35" t="s">
         <v>35</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3653,7 +3653,7 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="76"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="35" t="s">
         <v>35</v>
       </c>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="65" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="74"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="58" t="s">
         <v>35</v>
       </c>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="65" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4229,7 +4229,7 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="74"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="58" t="s">
         <v>35</v>
       </c>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4460,7 +4460,7 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="74"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="58" t="s">
         <v>35</v>
       </c>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4805,7 +4805,7 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="63"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="43" t="s">
         <v>35</v>
       </c>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5039,7 +5039,7 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="63"/>
+      <c r="B25" s="71"/>
       <c r="C25" s="43" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5273,7 +5273,7 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="63"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="43" t="s">
         <v>35</v>
       </c>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="75" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5616,7 +5616,7 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="68"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="48" t="s">
         <v>35</v>
       </c>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="75" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5846,7 +5846,7 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="68"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="48" t="s">
         <v>35</v>
       </c>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="58" t="s">
@@ -6187,7 +6187,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="74"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="58" t="s">
         <v>35</v>
       </c>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -6414,7 +6414,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="74"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="58" t="s">
         <v>35</v>
       </c>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="39" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="51" t="s">
@@ -6752,7 +6752,7 @@
     </row>
     <row r="40" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="66"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="51" t="s">
         <v>35</v>
       </c>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="41" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="72" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="51" t="s">
@@ -6982,7 +6982,7 @@
     </row>
     <row r="42" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="65"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="51" t="s">
         <v>35</v>
       </c>
@@ -7326,6 +7326,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -7336,26 +7356,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA44">
     <cfRule type="expression" dxfId="3" priority="17">
@@ -7399,15 +7399,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7608,6 +7599,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7620,14 +7620,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7644,4 +7636,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dokumente/project plan.xlsx
+++ b/Dokumente/project plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14B0C5-22A1-474D-9E18-D8A49B0038D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92265AB-B94E-4836-9AEE-D1CAE9E2FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1208,6 +1208,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,41 +1247,14 @@
     <xf numFmtId="173" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="18" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1822,9 +1825,9 @@
   </sheetPr>
   <dimension ref="A1:DA46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BX36" sqref="BX36"/>
+      <selection pane="bottomLeft" activeCell="AX36" sqref="AX36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1860,10 +1863,10 @@
       <c r="C2" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="71">
         <v>45922</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:105" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1878,146 +1881,146 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="72">
         <f>H4</f>
         <v>45922</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="62">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="72">
         <f>O4</f>
         <v>45929</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="62">
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="72">
         <f t="shared" ref="V3" si="0">V4</f>
         <v>45936</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="62">
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="72">
         <f t="shared" ref="AC3" si="1">AC4</f>
         <v>45943</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="62">
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="72">
         <f t="shared" ref="AJ3" si="2">AJ4</f>
         <v>45950</v>
       </c>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="62">
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="72">
         <f t="shared" ref="AQ3" si="3">AQ4</f>
         <v>45957</v>
       </c>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="62">
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="72">
         <f t="shared" ref="AX3" si="4">AX4</f>
         <v>45964</v>
       </c>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="62">
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="72">
         <f t="shared" ref="BE3" si="5">BE4</f>
         <v>45971</v>
       </c>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="62">
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="72">
         <f t="shared" ref="BL3" si="6">BL4</f>
         <v>45978</v>
       </c>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="62">
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="72">
         <f t="shared" ref="BS3" si="7">BS4</f>
         <v>45985</v>
       </c>
-      <c r="BT3" s="63"/>
-      <c r="BU3" s="63"/>
-      <c r="BV3" s="63"/>
-      <c r="BW3" s="63"/>
-      <c r="BX3" s="63"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="62">
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="72">
         <f t="shared" ref="BZ3" si="8">BZ4</f>
         <v>45992</v>
       </c>
-      <c r="CA3" s="63"/>
-      <c r="CB3" s="63"/>
-      <c r="CC3" s="63"/>
-      <c r="CD3" s="63"/>
-      <c r="CE3" s="63"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="62">
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="73"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="73"/>
+      <c r="CF3" s="74"/>
+      <c r="CG3" s="72">
         <f t="shared" ref="CG3" si="9">CG4</f>
         <v>45999</v>
       </c>
-      <c r="CH3" s="63"/>
-      <c r="CI3" s="63"/>
-      <c r="CJ3" s="63"/>
-      <c r="CK3" s="63"/>
-      <c r="CL3" s="63"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="62">
+      <c r="CH3" s="73"/>
+      <c r="CI3" s="73"/>
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="73"/>
+      <c r="CL3" s="73"/>
+      <c r="CM3" s="74"/>
+      <c r="CN3" s="72">
         <f t="shared" ref="CN3" si="10">CN4</f>
         <v>46006</v>
       </c>
-      <c r="CO3" s="63"/>
-      <c r="CP3" s="63"/>
-      <c r="CQ3" s="63"/>
-      <c r="CR3" s="63"/>
-      <c r="CS3" s="63"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="62">
+      <c r="CO3" s="73"/>
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="73"/>
+      <c r="CR3" s="73"/>
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="72">
         <f t="shared" ref="CU3" si="11">CU4</f>
         <v>46013</v>
       </c>
-      <c r="CV3" s="63"/>
-      <c r="CW3" s="63"/>
-      <c r="CX3" s="63"/>
-      <c r="CY3" s="63"/>
-      <c r="CZ3" s="63"/>
-      <c r="DA3" s="64"/>
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="73"/>
+      <c r="CX3" s="73"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="73"/>
+      <c r="DA3" s="74"/>
     </row>
     <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3063,7 +3066,7 @@
     </row>
     <row r="8" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="75" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -3181,7 +3184,7 @@
     </row>
     <row r="9" spans="1:105" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="35" t="s">
         <v>35</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="75" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -3417,7 +3420,7 @@
     </row>
     <row r="11" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="68"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="35" t="s">
         <v>35</v>
       </c>
@@ -3535,7 +3538,7 @@
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="75" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -3653,7 +3656,7 @@
     </row>
     <row r="13" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="68"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="35" t="s">
         <v>35</v>
       </c>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="15" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="69" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -3998,7 +4001,7 @@
     </row>
     <row r="16" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="66"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="58" t="s">
         <v>35</v>
       </c>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="17" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="69" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -4229,7 +4232,7 @@
     </row>
     <row r="18" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="66"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="58" t="s">
         <v>35</v>
       </c>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="19" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -4460,7 +4463,7 @@
     </row>
     <row r="20" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
-      <c r="B20" s="66"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="58" t="s">
         <v>35</v>
       </c>
@@ -4687,7 +4690,7 @@
     </row>
     <row r="22" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="43" t="s">
@@ -4805,7 +4808,7 @@
     </row>
     <row r="23" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="71"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="43" t="s">
         <v>35</v>
       </c>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="24" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="62" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -5039,7 +5042,7 @@
     </row>
     <row r="25" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="43" t="s">
         <v>35</v>
       </c>
@@ -5155,7 +5158,7 @@
     </row>
     <row r="26" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="43" t="s">
@@ -5273,7 +5276,7 @@
     </row>
     <row r="27" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="71"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="43" t="s">
         <v>35</v>
       </c>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="29" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="48" t="s">
@@ -5616,16 +5619,20 @@
     </row>
     <row r="30" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="76"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="49">
+        <v>45964</v>
+      </c>
+      <c r="E30" s="49">
+        <v>45977</v>
+      </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="10" t="str">
+      <c r="G30" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -5669,7 +5676,7 @@
       <c r="AU30" s="14"/>
       <c r="AV30" s="14"/>
       <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
+      <c r="AX30" s="77"/>
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
       <c r="BA30" s="14"/>
@@ -5728,7 +5735,7 @@
     </row>
     <row r="31" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="67" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="48" t="s">
@@ -5846,16 +5853,20 @@
     </row>
     <row r="32" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="76"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="D32" s="49">
+        <v>45971</v>
+      </c>
+      <c r="E32" s="49">
+        <v>45984</v>
+      </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="10">
         <f t="shared" si="48"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -6069,7 +6080,7 @@
     </row>
     <row r="34" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="58" t="s">
@@ -6187,7 +6198,7 @@
     </row>
     <row r="35" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="66"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="58" t="s">
         <v>35</v>
       </c>
@@ -6299,7 +6310,7 @@
     </row>
     <row r="36" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="69" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="58" t="s">
@@ -6414,7 +6425,7 @@
     </row>
     <row r="37" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="66"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="58" t="s">
         <v>35</v>
       </c>
@@ -6634,7 +6645,7 @@
     </row>
     <row r="39" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="51" t="s">
@@ -6752,7 +6763,7 @@
     </row>
     <row r="40" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="51" t="s">
         <v>35</v>
       </c>
@@ -6864,7 +6875,7 @@
     </row>
     <row r="41" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="64" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="51" t="s">
@@ -6982,7 +6993,7 @@
     </row>
     <row r="42" spans="1:105" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="73"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="51" t="s">
         <v>35</v>
       </c>
@@ -7326,26 +7337,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="CU3:DA3"/>
-    <mergeCell ref="BL3:BR3"/>
-    <mergeCell ref="BS3:BY3"/>
-    <mergeCell ref="BZ3:CF3"/>
-    <mergeCell ref="CG3:CM3"/>
-    <mergeCell ref="CN3:CT3"/>
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BD3"/>
     <mergeCell ref="BE3:BK3"/>
@@ -7356,6 +7347,26 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="CU3:DA3"/>
+    <mergeCell ref="BL3:BR3"/>
+    <mergeCell ref="BS3:BY3"/>
+    <mergeCell ref="BZ3:CF3"/>
+    <mergeCell ref="CG3:CM3"/>
+    <mergeCell ref="CN3:CT3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:DA44">
     <cfRule type="expression" dxfId="3" priority="17">
@@ -7399,6 +7410,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E708E235B0E5CE4EBF02E35118BE8A61" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c9cf5307cf036da9aa5d5eb7826aa596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21da7c7b-2a86-4dff-bdbf-913f324e8051" xmlns:ns3="3d8d41c4-2d1a-4f79-aab5-2440921370ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc1ee7d851c350a78eceaa91df4bcabc" ns2:_="" ns3:_="">
     <xsd:import namespace="21da7c7b-2a86-4dff-bdbf-913f324e8051"/>
@@ -7599,15 +7619,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -7620,6 +7631,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34BE0F69-5617-44E2-9F76-316AC1DD72E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7636,12 +7655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>